--- a/media/student/Student Data.xlsx
+++ b/media/student/Student Data.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="132" yWindow="516" windowWidth="22716" windowHeight="8940"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Institute Mail Id</t>
   </si>
@@ -47,68 +50,89 @@
   </si>
   <si>
     <t>20CD12121</t>
+  </si>
+  <si>
+    <t>shiveshchaturvedi.knp2019@gmail.com</t>
+  </si>
+  <si>
+    <t>Shivesh</t>
+  </si>
+  <si>
+    <t>20ME10096</t>
+  </si>
+  <si>
+    <t>kunal10061994@gmail.com</t>
+  </si>
+  <si>
+    <t>Kapil</t>
+  </si>
+  <si>
+    <t>20PH20016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -298,23 +322,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="24.71"/>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -325,7 +355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="13.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -336,7 +366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="13.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -347,7 +377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="13.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -358,7 +388,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/media/student/Student Data.xlsx
+++ b/media/student/Student Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\TSG-Hackathon\media\student\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B8AB5F-A814-4BDE-9D2C-E8EADB6CC19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="516" windowWidth="22716" windowHeight="8940"/>
+    <workbookView xWindow="5760" yWindow="996" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Institute Mail Id</t>
   </si>
@@ -68,13 +74,22 @@
   </si>
   <si>
     <t>20PH20016</t>
+  </si>
+  <si>
+    <t>deepakverma.knp2019@gmail.com</t>
+  </si>
+  <si>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t>20ME30018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -92,6 +107,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -112,22 +133,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -328,23 +360,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.77734375" customWidth="1"/>
     <col min="2" max="3" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.2">
+    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -355,7 +387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.2">
+    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -366,7 +398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.2">
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -377,7 +409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.2">
+    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -388,7 +420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -399,7 +431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -410,7 +442,21 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{2BF60619-2DCB-46F7-AC42-DA5E7DF238AF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/media/student/Student Data.xlsx
+++ b/media/student/Student Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\TSG-Hackathon\media\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B8AB5F-A814-4BDE-9D2C-E8EADB6CC19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BECF94B-6F94-4A89-A17F-BC5802F0DFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="996" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -107,12 +107,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -133,9 +127,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -144,10 +137,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,7 +359,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -454,9 +446,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" xr:uid="{2BF60619-2DCB-46F7-AC42-DA5E7DF238AF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/media/student/Student Data.xlsx
+++ b/media/student/Student Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\TSG-Hackathon\media\student\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankita Majumder\OneDrive\Desktop\TSG-Hackathon\media\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BECF94B-6F94-4A89-A17F-BC5802F0DFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98669FB-C1D0-45D2-9669-F9A1C48B4FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="996" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Institute Mail Id</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>20ME30018</t>
+  </si>
+  <si>
+    <t>ankitam@kgpian.iitkgp.ac.in</t>
+  </si>
+  <si>
+    <t>Ankita</t>
+  </si>
+  <si>
+    <t>20GG20007</t>
   </si>
 </sst>
 </file>
@@ -356,10 +365,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -445,6 +454,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
